--- a/src/main/java/utilities/FAQ_TFC_HN_Round_0.xlsx
+++ b/src/main/java/utilities/FAQ_TFC_HN_Round_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\TEST\src\main\java\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C24D83-2D01-40B6-A5AC-39E4152EAF2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F126B-1087-4B75-BB80-F43FA158ED7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{325AAD91-1094-44BE-BE46-63E60B18B16F}"/>
   </bookViews>
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>Answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuộc thi TOEFL Primary Challenge là cuộc thi gì? </t>
   </si>
   <si>
     <t>Tại sao nên tham gia cuộc thi TOEFL Primary Challenge?</t>
@@ -299,6 +296,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>Cuộc thi TOEFL Primary Challenge là cuộc thi gì?</t>
+  </si>
+  <si>
+    <t>shortAnswers</t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,13 +849,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -860,184 +863,184 @@
     </row>
     <row r="2" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D14" s="7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1064,13 +1067,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1078,58 +1081,58 @@
     </row>
     <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,128 +1142,128 @@
     </row>
     <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="C8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>51</v>
-      </c>
       <c r="D9" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
